--- a/Proyecto Interno/working-papers/working-paper-aecm/output/ts-ecm/261225_table3_ecm_cali.xlsx
+++ b/Proyecto Interno/working-papers/working-paper-aecm/output/ts-ecm/261225_table3_ecm_cali.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +458,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CEBOLLA CABEZONA / Cebolla cabezona blanca bogotana</t>
+          <t>PAPA / Papa capira</t>
         </is>
       </c>
     </row>
@@ -469,13 +469,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.1273192293430375</v>
+        <v>0.08959444954886889</v>
       </c>
       <c r="D8">
-        <v>0.06267440946949135</v>
+        <v>0.04874911419751091</v>
       </c>
       <c r="E8">
-        <v>0.04801109568064196</v>
+        <v>0.07254503561667039</v>
       </c>
     </row>
     <row r="9">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.3032031630661401</v>
+        <v>-0.3879246191179683</v>
       </c>
       <c r="D9">
-        <v>0.08468532992299677</v>
+        <v>0.08778591629373358</v>
       </c>
       <c r="E9">
-        <v>0.0008232398118164227</v>
+        <v>5.991534075207115E-05</v>
       </c>
     </row>
     <row r="10">
@@ -501,13 +501,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.3526317376248679</v>
+        <v>0.3403182590331744</v>
       </c>
       <c r="D10">
-        <v>0.1185795072614614</v>
+        <v>0.1212267582222522</v>
       </c>
       <c r="E10">
-        <v>0.004671067560026426</v>
+        <v>0.00730431656602377</v>
       </c>
     </row>
     <row r="11">
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.09794339123146907</v>
+        <v>-0.2667157813142614</v>
       </c>
       <c r="D11">
-        <v>0.1318809024252537</v>
+        <v>0.2080773248577487</v>
       </c>
       <c r="E11">
-        <v>0.4614601342260224</v>
+        <v>0.2063322004340259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PAPA / Papa capira</t>
+          <t>PLÁTANO / Plátano hartón verde</t>
         </is>
       </c>
     </row>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.08959444954886889</v>
+        <v>0.01171047860116032</v>
       </c>
       <c r="D13">
-        <v>0.04874911419751091</v>
+        <v>0.0233112761579426</v>
       </c>
       <c r="E13">
-        <v>0.07254503561667039</v>
+        <v>0.6179825818541951</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>-0.3879246191179683</v>
+        <v>-0.1581900000713088</v>
       </c>
       <c r="D14">
-        <v>0.08778591629373358</v>
+        <v>0.087904021571261</v>
       </c>
       <c r="E14">
-        <v>5.991534075207115E-05</v>
+        <v>0.0789469356345836</v>
       </c>
     </row>
     <row r="15">
@@ -572,558 +572,132 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.3403182590331744</v>
+        <v>-0.05845230677283472</v>
       </c>
       <c r="D15">
-        <v>0.1212267582222522</v>
+        <v>0.1277310696170161</v>
       </c>
       <c r="E15">
-        <v>0.00730431656602377</v>
+        <v>0.649529373946871</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
+          <t>Δy_{t-2}</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>-0.1136875594415252</v>
+      </c>
+      <c r="D16">
+        <v>0.1203971933122745</v>
+      </c>
+      <c r="E16">
+        <v>0.3503070391866651</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Δx_{t-1}</t>
         </is>
       </c>
-      <c r="C16">
-        <v>-0.2667157813142614</v>
-      </c>
-      <c r="D16">
-        <v>0.2080773248577487</v>
-      </c>
-      <c r="E16">
-        <v>0.2063322004340259</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PAPA / Papa parda pastusa</t>
-        </is>
+      <c r="C17">
+        <v>0.2810099312321293</v>
+      </c>
+      <c r="D17">
+        <v>0.1623921446000135</v>
+      </c>
+      <c r="E17">
+        <v>0.09072347485490533</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>Δx_{t-2}</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.1053643104019392</v>
+        <v>0.2772650165843836</v>
       </c>
       <c r="D18">
-        <v>0.04821665997884186</v>
+        <v>0.1585799213031284</v>
       </c>
       <c r="E18">
-        <v>0.03400261652391656</v>
+        <v>0.08752732562841918</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>-0.3963413977951906</v>
-      </c>
-      <c r="D19">
-        <v>0.08675073758064142</v>
-      </c>
-      <c r="E19">
-        <v>3.677251074121332E-05</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YUCA / Yuca ICA</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Δy_{t-1}</t>
+          <t>Intercept</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.3366184879459573</v>
+        <v>0.0733990507467792</v>
       </c>
       <c r="D20">
-        <v>0.1250002476135575</v>
+        <v>0.02247825333496485</v>
       </c>
       <c r="E20">
-        <v>0.009848100810276532</v>
+        <v>0.00206847468264848</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Δx_{t-1}</t>
+          <t>e_{t-1}</t>
         </is>
       </c>
       <c r="C21">
-        <v>-0.2653424597008802</v>
+        <v>-0.1847802707139212</v>
       </c>
       <c r="D21">
-        <v>0.1783634289438492</v>
+        <v>0.05672005611737689</v>
       </c>
       <c r="E21">
-        <v>0.1436664937076238</v>
+        <v>0.002113755881798505</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>PAPA / Papa suprema</t>
-        </is>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Δy_{t-1}</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>0.1698592034225451</v>
+      </c>
+      <c r="D22">
+        <v>0.1505081251485112</v>
+      </c>
+      <c r="E22">
+        <v>0.2649302326184692</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>Δx_{t-1}</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.1041297096302626</v>
+        <v>-0.03156054203042523</v>
       </c>
       <c r="D23">
-        <v>0.04982703905806393</v>
+        <v>0.07072275574991739</v>
       </c>
       <c r="E23">
-        <v>0.04219084071928825</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>-0.3436821299084125</v>
-      </c>
-      <c r="D24">
-        <v>0.08135043796155646</v>
-      </c>
-      <c r="E24">
-        <v>0.0001119707880177724</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>0.3399722524843488</v>
-      </c>
-      <c r="D25">
-        <v>0.124626120327977</v>
-      </c>
-      <c r="E25">
-        <v>0.008993981767867811</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>-0.2151003114796173</v>
-      </c>
-      <c r="D26">
-        <v>0.1722409579478142</v>
-      </c>
-      <c r="E26">
-        <v>0.2180441414449789</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>PAPA / Papa única</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>0.1045335503457391</v>
-      </c>
-      <c r="D28">
-        <v>0.05097191852858495</v>
-      </c>
-      <c r="E28">
-        <v>0.04600740882398559</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>-0.3193590876482291</v>
-      </c>
-      <c r="D29">
-        <v>0.07967013208716732</v>
-      </c>
-      <c r="E29">
-        <v>0.0002218875214246418</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>0.365420155110242</v>
-      </c>
-      <c r="D30">
-        <v>0.126174078887041</v>
-      </c>
-      <c r="E30">
-        <v>0.005763639572917947</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>-0.1920399445268041</v>
-      </c>
-      <c r="D31">
-        <v>0.1550238469136268</v>
-      </c>
-      <c r="E31">
-        <v>0.2217123129133026</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>PLÁTANO / Plátano hartón verde</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>0.01171047860116032</v>
-      </c>
-      <c r="D33">
-        <v>0.0233112761579426</v>
-      </c>
-      <c r="E33">
-        <v>0.6179825818541951</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>-0.1581900000713088</v>
-      </c>
-      <c r="D34">
-        <v>0.087904021571261</v>
-      </c>
-      <c r="E34">
-        <v>0.0789469356345836</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>-0.05845230677283472</v>
-      </c>
-      <c r="D35">
-        <v>0.1277310696170161</v>
-      </c>
-      <c r="E35">
-        <v>0.649529373946871</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Δy_{t-2}</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>-0.1136875594415252</v>
-      </c>
-      <c r="D36">
-        <v>0.1203971933122745</v>
-      </c>
-      <c r="E36">
-        <v>0.3503070391866651</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>0.2810099312321293</v>
-      </c>
-      <c r="D37">
-        <v>0.1623921446000135</v>
-      </c>
-      <c r="E37">
-        <v>0.09072347485490533</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Δx_{t-2}</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>0.2772650165843836</v>
-      </c>
-      <c r="D38">
-        <v>0.1585799213031284</v>
-      </c>
-      <c r="E38">
-        <v>0.08752732562841918</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>TOMATE / Tomate larga vida</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>0.1570568471599107</v>
-      </c>
-      <c r="D40">
-        <v>0.07193437366896438</v>
-      </c>
-      <c r="E40">
-        <v>0.03415022544444028</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>-0.5004004797861988</v>
-      </c>
-      <c r="D41">
-        <v>0.1627744374841168</v>
-      </c>
-      <c r="E41">
-        <v>0.003544135960474384</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>-0.09785193575389792</v>
-      </c>
-      <c r="D42">
-        <v>0.1463941204631879</v>
-      </c>
-      <c r="E42">
-        <v>0.5072095168084101</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>1.275127923968799</v>
-      </c>
-      <c r="D43">
-        <v>0.577595248578278</v>
-      </c>
-      <c r="E43">
-        <v>0.03229482578976116</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>YUCA / Yuca ICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>0.0733990507467792</v>
-      </c>
-      <c r="D45">
-        <v>0.02247825333496485</v>
-      </c>
-      <c r="E45">
-        <v>0.00206847468264848</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>-0.1847802707139212</v>
-      </c>
-      <c r="D46">
-        <v>0.05672005611737689</v>
-      </c>
-      <c r="E46">
-        <v>0.002113755881798505</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C47">
-        <v>0.1698592034225451</v>
-      </c>
-      <c r="D47">
-        <v>0.1505081251485112</v>
-      </c>
-      <c r="E47">
-        <v>0.2649302326184692</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>-0.03156054203042523</v>
-      </c>
-      <c r="D48">
-        <v>0.07072275574991739</v>
-      </c>
-      <c r="E48">
         <v>0.6575051259001852</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ZANAHORIA / Zanahoria bogotana</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>0.07382383059014218</v>
-      </c>
-      <c r="D50">
-        <v>0.06170269037599333</v>
-      </c>
-      <c r="E50">
-        <v>0.237653655246306</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>e_{t-1}</t>
-        </is>
-      </c>
-      <c r="C51">
-        <v>-0.320357602063483</v>
-      </c>
-      <c r="D51">
-        <v>0.08521756704431313</v>
-      </c>
-      <c r="E51">
-        <v>0.0004795867748814529</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Δy_{t-1}</t>
-        </is>
-      </c>
-      <c r="C52">
-        <v>0.447669928500793</v>
-      </c>
-      <c r="D52">
-        <v>0.1211635326824611</v>
-      </c>
-      <c r="E52">
-        <v>0.0005835390357420501</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Δx_{t-1}</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>-0.1235989591994964</v>
-      </c>
-      <c r="D53">
-        <v>0.1818971598394033</v>
-      </c>
-      <c r="E53">
-        <v>0.5002268394154685</v>
       </c>
     </row>
   </sheetData>
